--- a/employee_chatbot.xlsx
+++ b/employee_chatbot.xlsx
@@ -1,101 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veeru\Downloads\roster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F986292-FDD0-4D3D-82D9-998AC9AEBAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Planned_Leave_1</t>
-  </si>
-  <si>
-    <t>Planned_Leave_2</t>
-  </si>
-  <si>
-    <t>vishal.d2019cse@sece.ac.in</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Vishal Dhanasekaran</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,189 +420,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employee_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Planned_Leave_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Planned_Leave_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>909091</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>2783</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>909091</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>2234</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{6D3F7041-5B90-4B9F-B0B4-21AB83D8F3A6}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{8AA1B95D-3A3B-441B-89C2-5D552F3EC721}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{F62F9FC8-A330-4EC8-A934-4162DEA17448}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{20D2C2AD-90A4-4558-99B1-3FDFFF1B41B9}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{7C7EF3D4-DC47-4B98-942C-D3C8D8704384}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{AB5C9787-303A-49D3-A672-F146B89AFA92}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{B907322D-5A01-412A-B487-0EB8C105E6C4}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{402F6E64-DC3C-460B-9FB0-E03A4416F5B2}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/employee_chatbot.xlsx
+++ b/employee_chatbot.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>

--- a/employee_chatbot.xlsx
+++ b/employee_chatbot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\roster-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B7A25-1265-43BC-8487-413B85FF0C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63F84F-1DC9-4909-AEDF-E1B86BDCD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>j</t>
   </si>
   <si>
-    <t>shwethasathish@virtusa.com</t>
+    <t>dvishal@virtusa.com</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/employee_chatbot.xlsx
+++ b/employee_chatbot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\roster-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63F84F-1DC9-4909-AEDF-E1B86BDCD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F23357-111C-44BA-924D-AB1AC5E7129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>j</t>
   </si>
   <si>
-    <t>dvishal@virtusa.com</t>
+    <t>veeruvishal4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/employee_chatbot.xlsx
+++ b/employee_chatbot.xlsx
@@ -1,122 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\roster-backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F23357-111C-44BA-924D-AB1AC5E7129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Planned_Leave_1</t>
-  </si>
-  <si>
-    <t>Planned_Leave_2</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Vishal Dhanasekaran</t>
-  </si>
-  <si>
-    <t>vishal.d2019cse@sece.ac.in</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>veeruvishal4@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -131,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,203 +420,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employee_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Planned_Leave_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Planned_Leave_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>veeruvishal4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vishal Dhanasekaran</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vishal.d2019cse@sece.ac.in</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2783</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>909091</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>2783</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>909091</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
         <v>2234</v>
       </c>
-      <c r="D14">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>2</v>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{CD8784BD-8C17-44D6-8D6E-886CB6E618FE}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>